--- a/data/trans_camb/P25A_2_R2-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P25A_2_R2-Edad-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -611,20 +642,35 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,63</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>4,09</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>1,29</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>2,18</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
@@ -649,20 +695,35 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 13,66</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 6,54</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -687,20 +748,35 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -743,6 +819,21 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,03</t>
+          <t>-1,73</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,03</t>
+          <t>-1,73</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>1,56</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,02</t>
+          <t>1,85</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,01</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-0,14</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-0,05</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>0,27</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,69; 0,0</t>
+          <t>-9,81; 0,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,69; 0,0</t>
+          <t>-9,99; 0,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,16</t>
+          <t>-4,3; 7,7</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,86</t>
+          <t>0,0; 7,69</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 1,03</t>
+          <t>0,0; 10,31</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 1,06</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-3,19; 1,5</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-3,13; 1,83</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-1,85; 3,91</t>
         </is>
       </c>
     </row>
@@ -843,22 +964,37 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
+          <t>13,65%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-4,33%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-2,98%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-16,24%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-5,66%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>30,07%</t>
         </is>
       </c>
     </row>
@@ -899,6 +1035,21 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -923,20 +1074,35 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,6</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>1,07</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>0,85</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0,65</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
@@ -961,20 +1127,35 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 5,34</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 3,33</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -999,20 +1180,35 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
+      <c r="G14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="H14" s="2" t="inlineStr">
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1055,6 +1251,21 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,54</t>
+          <t>-1,05</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,29</t>
+          <t>-2,31</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,54</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,23</t>
+          <t>-0,96</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,54</t>
+          <t>2,08</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>3,28</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-1,0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>-0,02</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>1,7</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 1,69</t>
+          <t>-5,39; 2,67</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,65; 0,0</t>
+          <t>-8,29; 0,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 1,14</t>
+          <t>-4,64; 4,77</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 4,2</t>
+          <t>-4,13; 2,26</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 0,96</t>
+          <t>-2,28; 6,99</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 1,63</t>
+          <t>-1,94; 9,14</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-3,81; 1,73</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-2,9; 2,93</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-2,09; 5,68</t>
         </is>
       </c>
     </row>
@@ -1145,7 +1386,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-41,96%</t>
+          <t>-45,55%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1155,22 +1396,37 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-48,92%</t>
+          <t>2,09%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>111,55%</t>
+          <t>-47,15%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-45,43%</t>
+          <t>102,16%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>4,81%</t>
+          <t>160,92%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>-46,32%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>-0,76%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>78,74%</t>
         </is>
       </c>
     </row>
@@ -1208,7 +1464,22 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 403,74</t>
+          <t>-83,99; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>-62,08; 712,03</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-1,1</t>
+          <t>-0,42</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-2,65</t>
+          <t>-2,78</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-0,27</t>
+          <t>2,27</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-0,34</t>
+          <t>-0,13</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-0,71</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-1,55</t>
+          <t>2,09</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-0,29</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-1,61</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>2,07</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-6,19; 3,29</t>
+          <t>-7,77; 5,29</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-7,32; 1,14</t>
+          <t>-9,2; 2,11</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-4,25; 2,61</t>
+          <t>-5,96; 10,85</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-4,94; 2,85</t>
+          <t>-7,5; 3,56</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 2,14</t>
+          <t>-5,49; 5,72</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-4,79; 0,87</t>
+          <t>-3,75; 10,35</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-4,44; 3,81</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-5,65; 1,9</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-2,43; 7,79</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-26,34%</t>
+          <t>-9,94%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-63,22%</t>
+          <t>-65,44%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-13,67%</t>
+          <t>53,35%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-17,08%</t>
+          <t>-6,77%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-22,54%</t>
+          <t>0,33%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-49,17%</t>
+          <t>111,68%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-8,89%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-49,42%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>63,51%</t>
         </is>
       </c>
     </row>
@@ -1339,7 +1655,7 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-88,64; 222,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
@@ -1349,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1359,12 +1675,27 @@
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-79,0; 163,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-90,65; 98,76</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-88,18; 402,42</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 597,03</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-66,73; 754,49</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>-5,8</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-1,99</t>
+          <t>-5,56</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>3,03</t>
+          <t>-0,49</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>7,69</t>
+          <t>6,31</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>1,7</t>
+          <t>2,97</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>3,64</t>
+          <t>4,75</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>0,91</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>-0,81</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>2,29</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-8,02; 7,92</t>
+          <t>-19,0; 2,13</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-10,42; 5,06</t>
+          <t>-17,24; 2,7</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 9,28</t>
+          <t>-11,83; 12,07</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>0,79; 22,31</t>
+          <t>1,74; 15,44</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 6,04</t>
+          <t>0,0; 12,3</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 13,09</t>
+          <t>0,0; 16,87</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-4,84; 6,99</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>-6,56; 4,8</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>-2,98; 9,46</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>0,85%</t>
+          <t>-71,14%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-30,81%</t>
+          <t>-68,32%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>135,86%</t>
+          <t>-6,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>344,89%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>41,61%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>89,06%</t>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>25,14%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>-22,5%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>63,56%</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-77,64; 315,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 220,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-74,35; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-53,21; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-47,49; 308,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-37,96; 562,23</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>-78,6; inf</t>
         </is>
       </c>
     </row>
@@ -1537,32 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-0,53</t>
+          <t>-1,36</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-1,18</t>
+          <t>-2,04</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>1,16</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>1,68</t>
+          <t>1,67</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>1,1</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,3</t>
+          <t>1,76</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>0,25</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>-0,39</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>1,09</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 0,74</t>
+          <t>-3,64; 0,28</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-2,47; -0,01</t>
+          <t>-4,36; -0,5</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>0,02; 2,57</t>
+          <t>-2,24; 2,61</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>0,41; 4,0</t>
+          <t>0,25; 3,55</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 1,33</t>
+          <t>-0,13; 2,98</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 1,66</t>
+          <t>0,38; 4,41</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>-1,18; 1,62</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>-1,66; 0,72</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>-0,36; 2,63</t>
         </is>
       </c>
     </row>
@@ -1613,32 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-27,48%</t>
+          <t>-52,98%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-61,03%</t>
+          <t>-79,53%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>138,38%</t>
+          <t>11,6%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>200,55%</t>
+          <t>259,99%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>26,31%</t>
+          <t>172,19%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>21,83%</t>
+          <t>275,03%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>16,41%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>-25,14%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>71,26%</t>
         </is>
       </c>
     </row>
@@ -1651,43 +2087,65 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-73,19; 68,05</t>
+          <t>-87,72; 38,51</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-89,44; 37,56</t>
+          <t>-100,0; 19,6</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-14,37; 610,9</t>
+          <t>-63,98; 196,48</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>9,72; 961,58</t>
+          <t>-18,84; —</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-33,97; 145,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-40,11; 166,17</t>
+          <t>-13,94; —</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-55,27; 182,07</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-74,57; 89,23</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>-26,6; 271,82</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
